--- a/docs/Examples/SmallExampleWithRoomBook/KNX-planning-example.xlsx
+++ b/docs/Examples/SmallExampleWithRoomBook/KNX-planning-example.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">is added to ETS description field</t>
   </si>
   <si>
-    <t xml:space="preserve">unused</t>
+    <t xml:space="preserve">Ignored if no DPT is defined</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:J277"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3266,7 +3266,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="1" sqref="J20 I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
